--- a/biology/Zoologie/Holbrookia_maculata/Holbrookia_maculata.xlsx
+++ b/biology/Zoologie/Holbrookia_maculata/Holbrookia_maculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holbrookia maculata est une espèce de sauriens de la famille des Phrynosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holbrookia maculata est une espèce de sauriens de la famille des Phrynosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans l'Arizona, dans le Texas, dans l'Oklahoma, dans le Nouveau-Mexique, dans l'Utah, dans le Colorado, dans le Kansas, dans le Nebraska, dans le Dakota du Sud et dans le Wyoming ;
 au Mexique dans le Sonora, dans le Chihuahua, dans le Durango, dans le Coahuila, dans le Nuevo León, dans le Zacatecas, dans le San Luis Potosí, dans le Sinaloa et dans l'Aguascalientes.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (11 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (11 septembre 2014) :
 Holbrookia maculata bunkeri Smith, 1935
 Holbrookia maculata campi Schmidt, 1921
 Holbrookia maculata dickersonae Schmidt, 1921
@@ -581,9 +597,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Holbrookia maculata approximans[3] a été élevée au rang d'espèce.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Holbrookia maculata approximans a été élevée au rang d'espèce.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique maculata vient du latin maculatus, maculé, en référence référence aux motifs de points que présente ce saurien[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique maculata vient du latin maculatus, maculé, en référence référence aux motifs de points que présente ce saurien.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Axtell, 1956 : A solution to the long neglected Holbrookia lacerata problem, and the description of two new subspecies of Holbrookia. Bulletin of the Chicago Academy of Sciences, vol. 10, no 11, p. 163-179.
 Cope, 1883 : Notes on the geographical distribution of Batrachia and Reptilia in western North America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 35, p. 10-35 (texte intégral).
